--- a/top10_oligos_2020-11-19.xlsx
+++ b/top10_oligos_2020-11-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>AAAGGTCTCAGAACCTAAACCTGTGACTGGTGCGCAAGCCCGGAATCGAACCGG</t>
+  </si>
+  <si>
+    <t>100nm</t>
   </si>
   <si>
     <t>25nm</t>
@@ -600,7 +603,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -611,10 +614,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -628,7 +631,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -639,10 +642,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -653,10 +656,10 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -667,10 +670,10 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -684,7 +687,7 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -695,10 +698,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -712,7 +715,7 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -723,10 +726,10 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -740,7 +743,7 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -751,10 +754,10 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -768,7 +771,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -779,10 +782,10 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -796,7 +799,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -807,10 +810,10 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -821,10 +824,10 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -835,10 +838,10 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -852,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -863,10 +866,10 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -880,7 +883,7 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -891,10 +894,10 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -908,7 +911,7 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -919,10 +922,10 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -936,7 +939,7 @@
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -947,10 +950,10 @@
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -961,10 +964,10 @@
         <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -975,10 +978,10 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -992,7 +995,7 @@
         <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1003,10 +1006,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1020,7 +1023,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1031,10 +1034,10 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1048,7 +1051,7 @@
         <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1059,10 +1062,10 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1073,10 +1076,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1087,10 +1090,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
